--- a/prep_and_checklists/Skadden  /PREPLIST_Skadden  _07-10-2025_0.xlsx
+++ b/prep_and_checklists/Skadden  /PREPLIST_Skadden  _07-10-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Skadden  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514E12DF-4E30-5A47-9DCA-0CF37BC6E815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD764C0D-AC0F-3142-8E12-681CD0AC8AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1200" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="760" windowWidth="23540" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -839,27 +839,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -873,16 +852,37 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFE03E2D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -952,15 +952,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,22 +962,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,840 +1285,896 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="43.83203125" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
-    <col min="7" max="7" width="50.1640625" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="10"/>
+    <col min="4" max="4" width="43.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="10"/>
+    <col min="7" max="7" width="50.1640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="3" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="13"/>
+      <c r="D7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="G7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" s="10" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="13"/>
+      <c r="D8" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="G8" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="14" t="s">
         <v>178</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="3" t="s">
+    <row r="23" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D28" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="3" t="s">
+    <row r="32" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    </row>
+    <row r="34" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D35" s="3" t="s">
+    </row>
+    <row r="35" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    </row>
+    <row r="37" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    </row>
+    <row r="38" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    </row>
+    <row r="39" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    </row>
+    <row r="40" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="14" t="s">
         <v>181</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    </row>
+    <row r="41" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="D42" s="3" t="s">
+    <row r="42" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+      <c r="D42" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D47" s="3" t="s">
+    <row r="47" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="14" t="s">
         <v>181</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D52" s="3" t="s">
+    <row r="52" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="15" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="14" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="D55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="14" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="D56" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="14" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="D57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="14" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="D58" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="14" t="s">
         <v>191</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="41" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2133,477 +2187,478 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>